--- a/Producao de sites.xlsx
+++ b/Producao de sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igsr19\Desktop\Up2Tech-produtos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C3A45E-C3DC-4D7E-AA02-5763629287D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF7DC05-8427-4B8A-B392-122C020C4FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="571" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26269,7 +26269,7 @@
   <dimension ref="A1:E495"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26411,7 +26411,7 @@
         <v>42</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -26428,7 +26428,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
